--- a/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,6 +660,11 @@
           <t>Project Allocation (original)</t>
         </is>
       </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -703,12 +709,9 @@
           <t>4STY20CL</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>46323930.76000001</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -717,16 +720,6 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
           <t>Notice to Proceed dated on August 20, 2020</t>
@@ -774,10 +767,79 @@
       <c r="AO2" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AT2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,8 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>No. of Classrooms</t>
+          <t>PHYSICAL TARGET
+(# OF CL)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -572,95 +573,10 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Terminated</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>No. of CL Reverted</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>No. of CL Not yet started</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of CL Under Procurement</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>No. of CL On Going</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>No. of CL Completed</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>No. of CL Terminated</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Previous %</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>STOREY</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites (original)</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Classrooms (original)</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Project Allocation (original)</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
+          <t>Program-Year</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -669,7 +585,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWCON 2020</t>
+          <t>K10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -725,52 +641,15 @@
           <t>Notice to Proceed dated on August 20, 2020</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>NC 2020</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AT2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
@@ -56,11 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -576,76 +578,90 @@
           <t>Program-Year</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>K10</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>132942</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Falcon Memorial ES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Tago</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>4STY20CL</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="n">
         <v>46323930.76000001</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="3" t="inlineStr"/>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr"/>
+      <c r="R2" s="3" t="inlineStr"/>
+      <c r="S2" s="3" t="inlineStr"/>
+      <c r="T2" s="3" t="inlineStr"/>
+      <c r="U2" s="3" t="inlineStr"/>
+      <c r="V2" s="3" t="inlineStr"/>
+      <c r="W2" s="3" t="inlineStr"/>
+      <c r="X2" s="3" t="inlineStr"/>
+      <c r="Y2" s="3" t="inlineStr"/>
+      <c r="Z2" s="3" t="inlineStr"/>
+      <c r="AA2" s="3" t="inlineStr">
         <is>
           <t>Notice to Proceed dated on August 20, 2020</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AB2" s="3" t="inlineStr">
         <is>
           <t>NC 2020</t>
         </is>
       </c>
+      <c r="AC2" s="3" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,13 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,237 +443,269 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="44" customWidth="1" min="27" max="27"/>
+    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>PHYSICAL TARGET
 (# OF CL)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Batch</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Total Project Allocation</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Total Project Cost</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Program-Year</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AC1" s="3" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>K10</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>132942</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Falcon Memorial ES</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Tago</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>4STY20CL</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="n">
+      <c r="K2" s="4" t="inlineStr"/>
+      <c r="L2" s="4" t="n">
         <v>46323930.76000001</v>
       </c>
-      <c r="M2" s="3" t="inlineStr"/>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="inlineStr"/>
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="3" t="inlineStr"/>
-      <c r="R2" s="3" t="inlineStr"/>
-      <c r="S2" s="3" t="inlineStr"/>
-      <c r="T2" s="3" t="inlineStr"/>
-      <c r="U2" s="3" t="inlineStr"/>
-      <c r="V2" s="3" t="inlineStr"/>
-      <c r="W2" s="3" t="inlineStr"/>
-      <c r="X2" s="3" t="inlineStr"/>
-      <c r="Y2" s="3" t="inlineStr"/>
-      <c r="Z2" s="3" t="inlineStr"/>
-      <c r="AA2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr"/>
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr"/>
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
+      <c r="W2" s="4" t="inlineStr"/>
+      <c r="X2" s="4" t="inlineStr"/>
+      <c r="Y2" s="4" t="inlineStr"/>
+      <c r="Z2" s="4" t="inlineStr"/>
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>Notice to Proceed dated on August 20, 2020</t>
         </is>
       </c>
-      <c r="AB2" s="3" t="inlineStr">
+      <c r="AB2" s="4" t="inlineStr">
         <is>
           <t>NC 2020</t>
         </is>
       </c>
-      <c r="AC2" s="3" t="n"/>
+      <c r="AC2" s="5" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_NEWCON.xlsx
@@ -449,177 +449,177 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="27" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="26" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="26" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="12" customWidth="1" min="19" max="19"/>
-    <col width="13" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="44" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="44" customWidth="1" min="28" max="28"/>
     <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Program-Year</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>REGION</t>
-        </is>
-      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>PHYSICAL TARGET
 (# OF CL)</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Batch</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Total Project Allocation</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Total Project Cost</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>Program-Year</t>
         </is>
       </c>
       <c r="AC1" s="3" t="inlineStr">
@@ -631,61 +631,65 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
+          <t>NC 2020</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
           <t>K10</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Caraga</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>132942</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Falcon Memorial ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Tago</t>
         </is>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>4STY20CL</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr"/>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="n">
         <v>46323930.76000001</v>
       </c>
-      <c r="M2" s="4" t="inlineStr"/>
       <c r="N2" s="4" t="inlineStr"/>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr"/>
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="Q2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="4" t="inlineStr"/>
       <c r="R2" s="4" t="inlineStr"/>
       <c r="S2" s="4" t="inlineStr"/>
       <c r="T2" s="4" t="inlineStr"/>
@@ -695,14 +699,10 @@
       <c r="X2" s="4" t="inlineStr"/>
       <c r="Y2" s="4" t="inlineStr"/>
       <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="inlineStr">
+      <c r="AA2" s="4" t="inlineStr"/>
+      <c r="AB2" s="4" t="inlineStr">
         <is>
           <t>Notice to Proceed dated on August 20, 2020</t>
-        </is>
-      </c>
-      <c r="AB2" s="4" t="inlineStr">
-        <is>
-          <t>NC 2020</t>
         </is>
       </c>
       <c r="AC2" s="5" t="n"/>
